--- a/BBIO - BridgeBio Pharma Inc/BBIO.xlsx
+++ b/BBIO - BridgeBio Pharma Inc/BBIO.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Malburg\Desktop\BBIO - BridgeBio Pharma Inc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D727901-ECAE-4977-A49A-22162C20BF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EC34B3-FA34-44B9-BC46-32CC9FB1DD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="765" windowWidth="27000" windowHeight="14370" xr2:uid="{DE958FDE-4922-4801-A8E1-8ED62F036BF9}"/>
+    <workbookView xWindow="1410" yWindow="150" windowWidth="27000" windowHeight="14370" firstSheet="6" activeTab="13" xr2:uid="{DE958FDE-4922-4801-A8E1-8ED62F036BF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
     <sheet name="Literature" sheetId="3" r:id="rId3"/>
-    <sheet name="AAV gene therapy (2)" sheetId="13" r:id="rId4"/>
-    <sheet name="AAV gene therapy  (1)" sheetId="12" r:id="rId5"/>
-    <sheet name="BBP-821" sheetId="11" r:id="rId6"/>
-    <sheet name="BBP-631" sheetId="10" r:id="rId7"/>
-    <sheet name="BBP-954" sheetId="9" r:id="rId8"/>
-    <sheet name="BBP-398" sheetId="8" r:id="rId9"/>
-    <sheet name="Low-dose infigratinib" sheetId="7" r:id="rId10"/>
-    <sheet name="BBP-418" sheetId="6" r:id="rId11"/>
-    <sheet name="Encaleret" sheetId="5" r:id="rId12"/>
-    <sheet name="Acoramidis" sheetId="4" r:id="rId13"/>
+    <sheet name="Peers" sheetId="14" r:id="rId4"/>
+    <sheet name="AAV gene therapy (2)" sheetId="13" r:id="rId5"/>
+    <sheet name="AAV gene therapy  (1)" sheetId="12" r:id="rId6"/>
+    <sheet name="BBP-821" sheetId="11" r:id="rId7"/>
+    <sheet name="BBP-631" sheetId="10" r:id="rId8"/>
+    <sheet name="BBP-954" sheetId="9" r:id="rId9"/>
+    <sheet name="BBP-398" sheetId="8" r:id="rId10"/>
+    <sheet name="Low-dose infigratinib" sheetId="7" r:id="rId11"/>
+    <sheet name="BBP-418" sheetId="6" r:id="rId12"/>
+    <sheet name="Encaleret" sheetId="5" r:id="rId13"/>
+    <sheet name="Acoramidis" sheetId="4" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="198">
   <si>
     <t>Name</t>
   </si>
@@ -146,9 +147,6 @@
     <t>MOA</t>
   </si>
   <si>
-    <t>Acoramidis (AG10) is an investigational, orally-administered small molecule designed to potently stabilize tetrameric transthyretin (TTR). Acoramidis was designed to mimic a naturally-occurring variant of the TTR gene (T119M) that is considered a “rescue mutation” due to its ability to prevent or minimize ATTR in individuals carrying pathogenic, or disease-causing, mutations in the TTR gene. BridgeBio submitted its NDA to the U.S. FDA in 2023 with regulatory filings in additional markets to follow in 2024.</t>
-  </si>
-  <si>
     <t>ATTR-CM, ATTR-PN</t>
   </si>
   <si>
@@ -158,9 +156,6 @@
     <t xml:space="preserve">small molecule </t>
   </si>
   <si>
-    <t>Encaleret is an investigational small molecule antagonist of the calcium sensing receptor (CaSR) being studied in disorders of calcium homeostasis, including autosomal dominant hypocalcemia type 1 (ADH1). Individuals with ADH1 have gain-of-function mutations in the CaSR, causing low serum calcium and a range of debilitating symptoms. ADH1 may also lead to relatively high levels of calcium in urine, a condition called hypercalciuria, which can result in impaired kidney function and can cause kidney stone formation. Encaleret has been administered to approximately 1,300 healthy volunteers and osteoporosis patients, demonstrating tolerability and showing clear modification of ADH1 disease drivers, encouraging our investigation of the compound in ADH1 patients. Encaleret is a potential first-in-class CaSR antagonist for ADH1 and initiated its Phase 3 clinical trial at the end of 2022.</t>
-  </si>
-  <si>
     <t>Generic</t>
   </si>
   <si>
@@ -225,13 +220,454 @@
   </si>
   <si>
     <t>COGS</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD in thousands </t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q423</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>S,G&amp;A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restructuring </t>
+  </si>
+  <si>
+    <t>OpEx</t>
+  </si>
+  <si>
+    <t>OpInc (Loss)</t>
+  </si>
+  <si>
+    <t>interest income</t>
+  </si>
+  <si>
+    <t>intereset expense</t>
+  </si>
+  <si>
+    <t>Gain (deconsolidation of a subsidiary)</t>
+  </si>
+  <si>
+    <t>extinguishment of debt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net loss from equity method investment </t>
+  </si>
+  <si>
+    <t>Other income (expense), net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net Loss   </t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shares Outsstanding </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gross Profit </t>
+  </si>
+  <si>
+    <t>Q422</t>
+  </si>
+  <si>
+    <t>Q322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">search term </t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">read </t>
+  </si>
+  <si>
+    <t>importance</t>
+  </si>
+  <si>
+    <t>PMID</t>
+  </si>
+  <si>
+    <t>"Acoramidis"</t>
+  </si>
+  <si>
+    <t>Efficacy and Safety of Acoramidis in Transthyretin Amyloid Cardiomyopathy.</t>
+  </si>
+  <si>
+    <t>Gillmore JD, Judge DP, Cappelli F, Fontana M, Garcia-Pavia P, Gibbs S, Grogan M, Hanna M, Hoffman J, Masri A, Maurer MS, Nativi-Nicolau J, Obici L, Poulsen SH, Rockhold F, Shah KB, Soman P, Garg J, Chiswell K, Xu H, Cao X, Lystig T, Sinha U, Fox JC; ATTRibute-CM Investigators.N Engl J Med. 2024 Jan 11;390(2):132-142. doi: 10.1056/NEJMoa2305434.PMID: 38197816 Clinical Trial.</t>
+  </si>
+  <si>
+    <t>Acoramidis in Transthyretin Amyloid Cardiomyopathy.</t>
+  </si>
+  <si>
+    <t>Groothof D, Nienhuis HLA, Bakker SJL.N Engl J Med. 2024 Apr 11;390(14):1346. doi: 10.1056/NEJMc2401669.PMID: 38598812 No abstract available.</t>
+  </si>
+  <si>
+    <t>Verbeeck J, De Backer M, Buyse M.N Engl J Med. 2024 Apr 11;390(14):1345-1346. doi: 10.1056/NEJMc2401669.PMID: 38598811 No abstract available.</t>
+  </si>
+  <si>
+    <t>Acoramidis in Transthyretin Amyloid Cardiomyopathy. Reply.</t>
+  </si>
+  <si>
+    <t>Gillmore JD, Lystig T, Fox JC.N Engl J Med. 2024 Apr 11;390(14):1346-1347. doi: 10.1056/NEJMc2401669.PMID: 38598813 No abstract available.</t>
+  </si>
+  <si>
+    <t>The treatment of amyloidosis is being refined.</t>
+  </si>
+  <si>
+    <t>Cantone A, Sanguettoli F, Dal Passo B, Serenelli M, Rapezzi C.Eur Heart J Suppl. 2022 Nov 12;24(Suppl I):I131-I138. doi: 10.1093/eurheartjsupp/suac104. eCollection 2022 Nov.PMID: 36380794 Free PMC article.</t>
+  </si>
+  <si>
+    <t>Treatment of transthyretin cardiac amyloidosis.</t>
+  </si>
+  <si>
+    <t>Bampatsias D, Wardhere A, Maurer MS.Curr Opin Cardiol. 2024 Sep 1;39(5):407-416. doi: 10.1097/HCO.0000000000001156. Epub 2024 Apr 19.PMID: 38652263 Review.</t>
+  </si>
+  <si>
+    <t>Overview of Current and Emerging Therapies for Amyloid Transthyretin Cardiomyopathy.</t>
+  </si>
+  <si>
+    <t>Maurer MS.Am J Cardiol. 2022 Dec;185 Suppl 1:S23-S34. doi: 10.1016/j.amjcard.2022.10.014. Epub 2022 Nov 10.PMID: 36371281</t>
+  </si>
+  <si>
+    <t>Oral Therapy for the Treatment of Transthyretin-Related Amyloid Cardiomyopathy.</t>
+  </si>
+  <si>
+    <t>Nuvolone M, Girelli M, Merlini G.Int J Mol Sci. 2022 Dec 18;23(24):16145. doi: 10.3390/ijms232416145.PMID: 36555787 Free PMC article. Review.</t>
+  </si>
+  <si>
+    <t>Evolution of Disease-modifying Therapy for Transthyretin Cardiac Amyloidosis.</t>
+  </si>
+  <si>
+    <t>Ioannou A.Heart Int. 2024 Jun 27;18(1):30-37. doi: 10.17925/HI.2024.18.1.5. eCollection 2024.PMID: 39006464 Free PMC article. Review.</t>
+  </si>
+  <si>
+    <t>Recent advances in the diagnostic methods and therapeutic strategies of transthyretin cardiac amyloidosis.</t>
+  </si>
+  <si>
+    <t>Kourek C, Briasoulis A, Magouliotis DE, Georgoulias P, Giamouzis G, Triposkiadis F, Skoularigis J, Xanthopoulos A.World J Cardiol. 2024 Jul 26;16(7):370-379. doi: 10.4330/wjc.v16.i7.370.PMID: 39086890 Free PMC article.</t>
+  </si>
+  <si>
+    <t>Pharmacological Management of Transthyretin Amyloid Cardiomyopathy: A scoping review.</t>
+  </si>
+  <si>
+    <t>Rehman S, Masthan SS, Ibrahim R, Pham HN, Hassan D, Ahmad F, Asif MS, Safdar A, Anwar Z, Raza S, William P.Eur Heart J Cardiovasc Pharmacother. 2024 Jun 3:pvae044. doi: 10.1093/ehjcvp/pvae044. Online ahead of print.PMID: 38830793</t>
+  </si>
+  <si>
+    <t>"ATTR-CM" (only 2024)</t>
+  </si>
+  <si>
+    <t>Transthyretin Amyloid Cardiomyopathy (ATTR-CM).</t>
+  </si>
+  <si>
+    <t>Jain A, Zahra F.2023 Apr 27. In: StatPearls [Internet]. Treasure Island (FL): StatPearls Publishing; 2024 Jan–.PMID: 34662045 Free Books &amp; Documents.</t>
+  </si>
+  <si>
+    <t>Tafamidis.</t>
+  </si>
+  <si>
+    <t>Verma B, Patel P.2023 May 29. In: StatPearls [Internet]. Treasure Island (FL): StatPearls Publishing; 2024 Jan–.PMID: 34662022 Free Books &amp; Documents.</t>
+  </si>
+  <si>
+    <t>Cost-effectiveness of systematic screening and treatment of transthyretin amyloid cardiomyopathy (ATTR-CM) in patients with heart failure with preserved ejection fraction (HFpEF) in United States.</t>
+  </si>
+  <si>
+    <t>Lau ATC, DiDomenico RJ, Kim K.Int J Cardiol. 2024 Mar 1;398:131598. doi: 10.1016/j.ijcard.2023.131598. Epub 2023 Nov 17.PMID: 37979789 Review.</t>
+  </si>
+  <si>
+    <t>Six-minute walk test as clinical end point in cardiomyopathy clinical trials, including ATTR-CM: a systematic literature review.</t>
+  </si>
+  <si>
+    <t>Nativi-Nicolau J, Yilmaz A, Dasgupta N, Macey R, Cochrane J, Peatman J, Summers C, Luth J, Zolty R.J Comp Eff Res. 2024 Jul;13(7):e230158. doi: 10.57264/cer-2023-0158. Epub 2024 Jun 13.PMID: 38869839 Free PMC article. Review.</t>
+  </si>
+  <si>
+    <t>Tafamidis Efficacy Among Octogenarian Patients in the Phase 3 ATTR-ACT and Ongoing Long-Term Extension Study.</t>
+  </si>
+  <si>
+    <t>Garcia-Pavia P, Sultan MB, Gundapaneni B, Sekijima Y, Perfetto F, Hanna M, Witteles R.JACC Heart Fail. 2024 Jan;12(1):150-160. doi: 10.1016/j.jchf.2023.08.032. Epub 2023 Nov 8.PMID: 37943223 Free article.</t>
+  </si>
+  <si>
+    <t>Best Practices in Nuclear Imaging for the Diagnosis of Transthyretin Amyloid Cardiomyopathy (ATTR-CM) in KSA: The Eagle Eyes of Local Experts.</t>
+  </si>
+  <si>
+    <t>Alqarni A, Aljizeeri A, Bakhsh AM, El-Zeftawy HAM, Farghaly HR, Alqadhi MAM, Algarni M, Asiri ZM, Osman A, Haddadin H, Alayary I, Al-Mallah MH.Diagnostics (Basel). 2024 Jan 18;14(2):212. doi: 10.3390/diagnostics14020212.PMID: 38248088 Free PMC article. Review.</t>
+  </si>
+  <si>
+    <t>Effect of Tafamidis on Cardiac Function in Patients With Transthyretin Amyloid Cardiomyopathy: A Post Hoc Analysis of the ATTR-ACT Randomized Clinical Trial.</t>
+  </si>
+  <si>
+    <t>Shah SJ, Fine N, Garcia-Pavia P, Klein AL, Fernandes F, Weissman NJ, Maurer MS, Boman K, Gundapaneni B, Sultan MB, Elliott P.JAMA Cardiol. 2024 Jan 1;9(1):25-34. doi: 10.1001/jamacardio.2023.4147.PMID: 37966817 Free PMC article. Clinical Trial.</t>
+  </si>
+  <si>
+    <t>Breakthrough advances enhancing care in ATTR amyloid cardiomyopathy.</t>
+  </si>
+  <si>
+    <t>Porcari A, Sinagra G, Gillmore JD, Fontana M, Hawkins PN.Eur J Intern Med. 2024 May;123:29-36. doi: 10.1016/j.ejim.2024.01.001. Epub 2024 Jan 5.PMID: 38184468 Free article. Review.</t>
+  </si>
+  <si>
+    <t>Reduction in 99mTc-DPD myocardial uptake with therapy of ATTR cardiomyopathy.</t>
+  </si>
+  <si>
+    <t>Rettl R, Calabretta R, Duca F, Binder C, Kronberger C, Willixhofer R, Poledniczek M, Donà C, Nitsche C, Beitzke D, Loewe C, Auer-Grumbach M, Bonderman D, Kastl S, Hengstenberg C, Badr Eslam R, Kastner J, Bergler-Klein J, Hacker M, Kammerlander A.Amyloid. 2024 Mar;31(1):42-51. doi: 10.1080/13506129.2023.2247136. Epub 2023 Aug 20.PMID: 37599395</t>
+  </si>
+  <si>
+    <t>Current and Evolving Multimodality Cardiac Imaging in Managing Transthyretin Amyloid Cardiomyopathy.</t>
+  </si>
+  <si>
+    <t>Alwan L, Benz DC, Cuddy SAM, Dobner S, Shiri I, Caobelli F, Bernhard B, Stämpfli SF, Eberli F, Reyes M, Kwong RY, Falk RH, Dorbala S, Gräni C.JACC Cardiovasc Imaging. 2024 Feb;17(2):195-211. doi: 10.1016/j.jcmg.2023.10.010. Epub 2023 Dec 13.PMID: 38099914 Review.</t>
+  </si>
+  <si>
+    <t>Exploring Transthyretin Amyloid Cardiomyopathy: A Comprehensive Review of the Disease and Upcoming Treatments.</t>
+  </si>
+  <si>
+    <t>Jain H, Reddy MMRK, Dey RC, Jain J, Shakhatreh Z, Manandhar S, Neupane P, Waleed MS, Yadav R, Sah BK, Mahawa R.Curr Probl Cardiol. 2024 Jan;49(1 Pt B):102057. doi: 10.1016/j.cpcardiol.2023.102057. Epub 2023 Aug 26.PMID: 37640179 Review.</t>
+  </si>
+  <si>
+    <t>Advances in the diagnosis and treatment of transthyretin amyloid cardiomyopathy.</t>
+  </si>
+  <si>
+    <t>Vaishnav J, Brown E, Sharma K.Prog Cardiovasc Dis. 2024 Jan-Feb;82:113-124. doi: 10.1016/j.pcad.2024.01.013. Epub 2024 Jan 20.PMID: 38246305 Review.</t>
+  </si>
+  <si>
+    <t>Cardiopulmonary Exercise Testing in Evaluating Transthyretin Amyloidosis.</t>
+  </si>
+  <si>
+    <t>Patel RK, Bandera F, Venneri L, Porcari A, Razvi Y, Ioannou A, Chacko L, Martinez-Naharro A, Rauf MU, Knight D, Brown J, Petrie A, Wechalekar A, Whelan C, Lachmann H, Muthurangu V, Guazzi M, Hawkins PN, Gillmore JD, Fontana M.JAMA Cardiol. 2024 Apr 1;9(4):367-376. doi: 10.1001/jamacardio.2024.0022.PMID: 38446436</t>
+  </si>
+  <si>
+    <t>SGLT2 Inhibitor Therapy in Patients With Transthyretin Amyloid Cardiomyopathy.</t>
+  </si>
+  <si>
+    <t>Porcari A, Cappelli F, Nitsche C, Tomasoni D, Sinigiani G, Longhi S, Bordignon L, Masri A, Serenelli M, Urey M, Musumeci B, Cipriani A, Canepa M, Badr-Eslam R, Kronberger C, Chimenti C, Zampieri M, Allegro V, Razvi Y, Patel R, Ioannou A, Rauf MU, Petrie A, Whelan C, Emdin M, Metra M, Merlo M, Sinagra G, Hawkins PN, Solomon SD, Gillmore JD, Fontana M.J Am Coll Cardiol. 2024 Jun 18;83(24):2411-2422. doi: 10.1016/j.jacc.2024.03.429.PMID: 38866445 Free article.</t>
+  </si>
+  <si>
+    <t>Specific Therapy in Transthyretin Amyloid Cardiomyopathy: Future Perspectives Beyond Tafamidis.</t>
+  </si>
+  <si>
+    <t>Saro R, Allegro V, Merlo M, Dore F, Sinagra G, Porcari A.Heart Fail Clin. 2024 Jul;20(3):343-352. doi: 10.1016/j.hfc.2024.03.005. Epub 2024 Apr 4.PMID: 38844305 Review.</t>
+  </si>
+  <si>
+    <t>Musculoskeletal co-morbidities in patients with transthyretin amyloid cardiomyopathy: a systematic review.</t>
+  </si>
+  <si>
+    <t>Formiga F, Baeza LS, Chivite D, Yun S.ESC Heart Fail. 2024 Apr;11(2):662-671. doi: 10.1002/ehf2.14622. Epub 2023 Dec 21.PMID: 38130034 Free PMC article. Review.</t>
+  </si>
+  <si>
+    <t>Tafamidis in the Treatment of ATTR-related Cardiomyopathy: Indications and Grey Zones.</t>
+  </si>
+  <si>
+    <t>Capovilla TM, Lalario A, Rossi M, Porcari A, Aimo A, Limongelli G, Emdin M, Merlo M, Sinagra G.Heart Fail Clin. 2024 Jul;20(3):333-341. doi: 10.1016/j.hfc.2024.03.007. Epub 2024 Apr 12.PMID: 38844304 Review.</t>
+  </si>
+  <si>
+    <t>Exercise Intervention for Patients With Transthyretin Amyloid Cardiomyopathy (EXCITE-ATTR-CM) Pilot Study.</t>
+  </si>
+  <si>
+    <t>Rivera-Theurel F, Oh P, Thavendiranathan P, Laundos R, El-Rayes M, Nugaeva N, Delgado DH.Can J Cardiol. 2024 Mar;40(3):361-363. doi: 10.1016/j.cjca.2023.12.014. Epub 2023 Dec 22.PMID: 38141813 No abstract available.</t>
+  </si>
+  <si>
+    <t>Deep phenotyping of p.(V142I)-associated variant transthyretin amyloid cardiomyopathy: Distinct from wild-type transthyretin amyloidosis?</t>
+  </si>
+  <si>
+    <t>Razvi Y, Ioannou A, Patel RK, Chacko L, Karia N, Riefolo M, Porcari A, Rauf MU, Starr N, Ganesananthan S, Blakeney I, Kaza N, Filisetti S, Bolhuis RE, Rowczenio D, Gilbertson J, Hutt D, Mahmood S, Lachmann HJ, Wechalekar AD, Kotecha T, Knight DS, Coghlan JG, Petrie A, Whelan CJ, Venneri L, Martinez-Naharro A, Hawkins P, Fontana M, Gillmore JD.Eur J Heart Fail. 2024 Feb;26(2):383-393. doi: 10.1002/ejhf.3088. Epub 2024 Jan 28.PMID: 37953725</t>
+  </si>
+  <si>
+    <t> 34662022</t>
+  </si>
+  <si>
+    <t> 38869839</t>
+  </si>
+  <si>
+    <t> 38248088</t>
+  </si>
+  <si>
+    <t> 37966817</t>
+  </si>
+  <si>
+    <t> 38246305</t>
+  </si>
+  <si>
+    <t> 38866445</t>
+  </si>
+  <si>
+    <t> 38844304</t>
+  </si>
+  <si>
+    <t>"AG10 ATTR-CM"</t>
+  </si>
+  <si>
+    <t>Transthyretin Stabilization by AG10 in Symptomatic Transthyretin Amyloid Cardiomyopathy.</t>
+  </si>
+  <si>
+    <t>Judge DP, Heitner SB, Falk RH, Maurer MS, Shah SJ, Witteles RM, Grogan M, Selby VN, Jacoby D, Hanna M, Nativi-Nicolau J, Patel J, Rao S, Sinha U, Turtle CW, Fox JC.J Am Coll Cardiol. 2019 Jul 23;74(3):285-295. doi: 10.1016/j.jacc.2019.03.012. Epub 2019 Mar 15.PMID: 30885685 Free article. Clinical Trial.</t>
+  </si>
+  <si>
+    <t>Therapy of Transthyretin Cardiomyopathy.</t>
+  </si>
+  <si>
+    <t>Gertz MA.J Am Coll Cardiol. 2019 Jul 23;74(3):296-298. doi: 10.1016/j.jacc.2019.05.031.PMID: 31319911 Free article. No abstract available.</t>
+  </si>
+  <si>
+    <t>Transthyretin Amyloid Cardiomyopathy-Current and Future Therapies.</t>
+  </si>
+  <si>
+    <t>Yadav JD, Othee H, Chan KA, Man DC, Belliveau PP, Towle J.Ann Pharmacother. 2021 Dec;55(12):1502-1514. doi: 10.1177/10600280211000351. Epub 2021 Mar 9.PMID: 33685242</t>
+  </si>
+  <si>
+    <t>Gene Editing as the Future of Cardiac Amyloidosis Therapeutics.</t>
+  </si>
+  <si>
+    <t>Sethi Y, Mahtani AU, Khehra N, Padda I, Patel N, Sebastian SA, Malhi G, Kaiwan O, Saith S, Johal G.Curr Probl Cardiol. 2023 Aug;48(8):101741. doi: 10.1016/j.cpcardiol.2023.101741. Epub 2023 Apr 12.PMID: 37059345 Review.</t>
+  </si>
+  <si>
+    <t>Enthalpy-Driven Stabilization of Transthyretin by AG10 Mimics a Naturally Occurring Genetic Variant That Protects from Transthyretin Amyloidosis.</t>
+  </si>
+  <si>
+    <t>Miller M, Pal A, Albusairi W, Joo H, Pappas B, Haque Tuhin MT, Liang D, Jampala R, Liu F, Khan J, Faaij M, Park M, Chan W, Graef I, Zamboni R, Kumar N, Fox J, Sinha U, Alhamadsheh M.J Med Chem. 2018 Sep 13;61(17):7862-7876. doi: 10.1021/acs.jmedchem.8b00817. Epub 2018 Aug 22.PMID: 30133284 Free PMC article.</t>
+  </si>
+  <si>
+    <t>Biochemical and biophysical properties of a rare TTRA81V mutation causing mild transthyretin amyloid cardiomyopathy.</t>
+  </si>
+  <si>
+    <t>Sha Q, Zhang Y, Wang M, Sun J, Zhang Y, Zhang X, Wang N, Liu Y, Liu Y.ESC Heart Fail. 2024 Feb;11(1):112-125. doi: 10.1002/ehf2.14543. Epub 2023 Oct 12.PMID: 37827496 Free PMC article.</t>
+  </si>
+  <si>
+    <t> 37827496</t>
+  </si>
+  <si>
+    <t> 30133284</t>
+  </si>
+  <si>
+    <t>Q222</t>
+  </si>
+  <si>
+    <t>Q122</t>
+  </si>
+  <si>
+    <t>Q420</t>
+  </si>
+  <si>
+    <t>Q320</t>
+  </si>
+  <si>
+    <t>"Encaleret"</t>
+  </si>
+  <si>
+    <t>Efficacy and Safety of Encaleret in Autosomal Dominant Hypocalcemia Type 1.</t>
+  </si>
+  <si>
+    <t>Gafni RI, Hartley IR, Roszko KL, Nemeth EF, Pozo KA, Lombardi E, Sridhar AV, Roberts MS, Fox JC, Collins MT.N Engl J Med. 2023 Sep 28;389(13):1245-1247. doi: 10.1056/NEJMc2302708.PMID: 37754292 Free PMC article. No abstract available.</t>
+  </si>
+  <si>
+    <t>Treatment of Hypoparathyroidism by Re-Establishing the Effects of Parathyroid Hormone.</t>
+  </si>
+  <si>
+    <t>Rejnmark L.Endocrinol Metab (Seoul). 2024 Apr;39(2):262-266. doi: 10.3803/EnM.2024.1916. Epub 2024 Apr 4.PMID: 38572533 Free PMC article. Review.</t>
+  </si>
+  <si>
+    <t>antagonist (calcilytics)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indication </t>
+  </si>
+  <si>
+    <t>Autosomal dominant hypocalcemia 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">About the Drug </t>
+  </si>
+  <si>
+    <t>Encaleret is an investigational small molecule antagonist of the calcium sensing receptor (CaSR) being studied in disorders of calcium homeostasis, including autosomal dominant hypocalcemia type 1 (ADH1). Individuals with ADH1 have gain-of-function</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mutations in the CaSR, causing low serum calcium and a range of debilitating symptoms. ADH1 may also lead to relatively high levels of calcium in urine, a condition called hypercalciuria, which can result in impaired kidney function and can cause kidney stone formation. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encaleret has been administered to approximately 1,300 healthy volunteers and osteoporosis patients, demonstrating tolerability and showing clear modification of ADH1 disease drivers, encouraging our investigation of the compound in ADH1 patients. Encaleret is a potential </t>
+  </si>
+  <si>
+    <t>first-in-class CaSR antagonist for ADH1 and initiated its Phase 3 clinical trial at the end of 2022.</t>
+  </si>
+  <si>
+    <t>Conventional therapy with calcium and active vitamine D increases blood calcium levels but worsens hypercalciuria.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clinical Trials </t>
+  </si>
+  <si>
+    <t>CLTX-305, calcilytic</t>
+  </si>
+  <si>
+    <t>"n=13Phase 2b: CLTX-305 Open-label Dose-ranging Study evaluating the Safety, Tolerability, Pharmacodynamics and Pharmacokinetics, and Efficacy of CLTX-305 (Encalerent) in ADH Type 1"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 Adults with ADH1 caused by nine different CASR variants </t>
+  </si>
+  <si>
+    <t>study type</t>
+  </si>
+  <si>
+    <t>open-label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oral </t>
+  </si>
+  <si>
+    <t>×</t>
+  </si>
+  <si>
+    <t>ongoing</t>
+  </si>
+  <si>
+    <t>Transthyretin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acoramidis (AG10) is an investigational, orally-administered small molecule designed to potently stabilize tetrameric transthyretin (TTR). Acoramidis was designed to mimic a naturally-occurring variant of the TTR gene (T119M) </t>
+  </si>
+  <si>
+    <t>that is considered a “rescue mutation” due to its ability to prevent or minimize ATTR in individuals carrying pathogenic, or disease-causing, mutations in the TTR gene. BridgeBio submitted its NDA to the U.S. FDA in 2023 with regulatory filings in additional</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> markets to follow in 2024.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phase 3: "ATTRibute-CM  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,13 +710,49 @@
       <color theme="1"/>
       <name val="Inherit"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="12">
@@ -413,80 +885,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -504,6 +999,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Grafik 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2A41D3D-BCC0-A135-24BF-1178481D6DE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11306174" y="2124074"/>
+          <a:ext cx="2981325" cy="2981325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -839,335 +1389,351 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EAA7576-BB0C-422F-A145-67676333A69E}">
   <dimension ref="B4:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="2"/>
+    <col min="2" max="2" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="2"/>
+    <col min="5" max="5" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:11">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="5"/>
+      <c r="J4" s="34">
+        <v>24.43</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="I5" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="35">
+        <v>188033</v>
+      </c>
+      <c r="K5" s="10"/>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="28">
-        <v>3</v>
-      </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="I5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="2:11">
-      <c r="B6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="28">
-        <v>3</v>
-      </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="23"/>
-      <c r="I6" t="s">
+      <c r="D6" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="I6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="36">
         <f>J4*J5</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="13"/>
+        <v>4593646.1900000004</v>
+      </c>
+      <c r="K6" s="18"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="17"/>
+      <c r="I7" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="36">
+        <f>407958+139409</f>
+        <v>547367</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="28">
-        <v>3</v>
-      </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="23"/>
-      <c r="I7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="12"/>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="B8" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="28">
-        <v>3</v>
-      </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="23"/>
-      <c r="I8" t="s">
+      <c r="D8" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="17"/>
+      <c r="I8" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="12"/>
-      <c r="K8" s="5"/>
+      <c r="J8" s="36">
+        <f>7059+544270+737882</f>
+        <v>1289211</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="28">
-        <v>1</v>
-      </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="15"/>
-      <c r="I9" s="16" t="s">
+      <c r="C9" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="22"/>
+      <c r="I9" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="38">
         <f>J6-J7+J8</f>
-        <v>0</v>
+        <v>5335490.1900000004</v>
       </c>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="22"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D11" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="22"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="22"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="15"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="12"/>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="B11" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="28">
-        <v>1</v>
-      </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="15"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="12"/>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="B12" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="27" t="s">
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="25"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="28">
-        <v>1</v>
-      </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="15"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="12"/>
-    </row>
-    <row r="13" spans="2:11">
-      <c r="B13" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="28" t="s">
+      <c r="D14" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="11"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="19"/>
-    </row>
-    <row r="14" spans="2:11">
-      <c r="B14" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="26"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="29"/>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="30"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="27"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="21"/>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="31"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="27"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="21"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="31"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="27"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="21"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="31"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="27"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="21"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="31"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="27"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="21"/>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="31"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="27"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="21"/>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="31"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="27"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="21"/>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="31"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="27"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="21"/>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="31"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="27"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="21"/>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="31"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="27"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="21"/>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="31"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="27"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="21"/>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="31"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="27"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="21"/>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="31"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="27"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="21"/>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="31"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="27"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="21"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1181,41 +1747,84 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E6659D8-6233-4266-8D94-491EDE730F4D}">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7DE03C8-A72B-4882-8EC4-9E833FDDB987}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="B2" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75">
-      <c r="B8" s="33" t="s">
+    <row r="5" spans="1:4">
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="D6" s="6" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Mian" xr:uid="{F02048D8-D3BB-40B0-A604-FAA9C2F98D4B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E6659D8-6233-4266-8D94-491EDE730F4D}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75">
+      <c r="B8" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{B58C8BCE-58FE-4C5A-B4F3-05013B1820D6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCDB177-F4D1-4A11-9C28-6C676B11DF77}">
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -1229,13 +1838,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="D10" s="35" t="s">
-        <v>33</v>
+      <c r="D10" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1246,9 +1855,1466 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F13464DC-41DF-4EFE-B4AB-C59FFD3AE0B0}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="48" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75">
+      <c r="B9" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" s="48" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" s="49" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="D20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="D21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{4CEF1EA8-B1E5-4BFC-87C1-1534A516F037}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{507450D5-9110-4689-93EF-B3970FF1FFB0}">
+  <dimension ref="A1:O16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.75">
+      <c r="C8" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="C9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="C10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="O12" s="48" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="C14" s="48" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="D16" s="49" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{BF312400-E116-433D-A989-A5E9FB96E3F6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{738DC9AD-62C9-4B7E-81E9-C24C4F2EAF7F}">
+  <dimension ref="A1:M20"/>
+  <sheetViews>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="M9" sqref="M9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="36.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="40" customFormat="1">
+      <c r="A4" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="40">
+        <v>338</v>
+      </c>
+      <c r="H4" s="40">
+        <v>1826</v>
+      </c>
+      <c r="I4" s="40">
+        <v>1641</v>
+      </c>
+      <c r="J4" s="40">
+        <v>4091</v>
+      </c>
+      <c r="K4" s="40">
+        <f>9303-J4-I4-H4</f>
+        <v>1745</v>
+      </c>
+      <c r="L4" s="42">
+        <v>211120</v>
+      </c>
+      <c r="M4" s="40">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="2">
+        <v>739</v>
+      </c>
+      <c r="H5" s="2">
+        <v>651</v>
+      </c>
+      <c r="I5" s="2">
+        <v>599</v>
+      </c>
+      <c r="J5" s="2">
+        <v>598</v>
+      </c>
+      <c r="K5" s="2">
+        <f>2446-J5-I5-H5</f>
+        <v>598</v>
+      </c>
+      <c r="L5" s="2">
+        <v>598</v>
+      </c>
+      <c r="M5" s="2">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" ref="F6:L6" si="0">+F4-F5</f>
+        <v>-401</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="0"/>
+        <v>1175</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="0"/>
+        <v>1042</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="0"/>
+        <v>3493</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="0"/>
+        <v>1147</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="0"/>
+        <v>210522</v>
+      </c>
+      <c r="M6" s="2">
+        <f>+M4-M5</f>
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="2">
+        <v>92511</v>
+      </c>
+      <c r="H7" s="2">
+        <v>92861</v>
+      </c>
+      <c r="I7" s="2">
+        <v>107488</v>
+      </c>
+      <c r="J7" s="2">
+        <v>125136</v>
+      </c>
+      <c r="K7" s="2">
+        <f>455711-J7-I7-H7</f>
+        <v>130226</v>
+      </c>
+      <c r="L7" s="2">
+        <v>140972</v>
+      </c>
+      <c r="M7" s="2">
+        <v>114695</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="2">
+        <v>31188</v>
+      </c>
+      <c r="H8" s="2">
+        <v>31108</v>
+      </c>
+      <c r="I8" s="2">
+        <v>36122</v>
+      </c>
+      <c r="J8" s="2">
+        <v>35777</v>
+      </c>
+      <c r="K8" s="2">
+        <f>150590-J8-I8-H8</f>
+        <v>47583</v>
+      </c>
+      <c r="L8" s="2">
+        <v>65807</v>
+      </c>
+      <c r="M8" s="2">
+        <v>59523</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="2">
+        <v>5016</v>
+      </c>
+      <c r="H9" s="2">
+        <v>3369</v>
+      </c>
+      <c r="I9" s="2">
+        <v>3531</v>
+      </c>
+      <c r="J9" s="2">
+        <v>272</v>
+      </c>
+      <c r="K9" s="2">
+        <f>7926-J9-I9-H9</f>
+        <v>754</v>
+      </c>
+      <c r="L9" s="2">
+        <v>3400</v>
+      </c>
+      <c r="M9" s="2">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" ref="F10:L10" si="1">+F7+F8+F9</f>
+        <v>128715</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="1"/>
+        <v>127338</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="1"/>
+        <v>147141</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="1"/>
+        <v>161185</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="1"/>
+        <v>178563</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="1"/>
+        <v>210179</v>
+      </c>
+      <c r="M10" s="2">
+        <f>+M7+M8+M9</f>
+        <v>177109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" ref="F11:L11" si="2">+F6-F10</f>
+        <v>-129116</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="2"/>
+        <v>-126163</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="2"/>
+        <v>-146099</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="2"/>
+        <v>-157692</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="2"/>
+        <v>-177416</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" si="2"/>
+        <v>343</v>
+      </c>
+      <c r="M11" s="2">
+        <f>+M6-M10</f>
+        <v>-175539</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2417</v>
+      </c>
+      <c r="H12" s="2">
+        <v>4153</v>
+      </c>
+      <c r="I12" s="2">
+        <v>4514</v>
+      </c>
+      <c r="J12" s="2">
+        <v>3793</v>
+      </c>
+      <c r="K12" s="2">
+        <f>18038-J12-I12-H12</f>
+        <v>5578</v>
+      </c>
+      <c r="L12" s="2">
+        <v>4075</v>
+      </c>
+      <c r="M12" s="2">
+        <v>5195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="2">
+        <v>-19825</v>
+      </c>
+      <c r="H13" s="2">
+        <v>-20121</v>
+      </c>
+      <c r="I13" s="2">
+        <v>-20594</v>
+      </c>
+      <c r="J13" s="2">
+        <v>-20306</v>
+      </c>
+      <c r="K13" s="2">
+        <f>-81289-J13-I13-H13</f>
+        <v>-20268</v>
+      </c>
+      <c r="L13" s="2">
+        <v>-23471</v>
+      </c>
+      <c r="M13" s="2">
+        <v>-22937</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M14" s="2">
+        <v>126294</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L15" s="2">
+        <v>-26590</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M16" s="2">
+        <v>-7925</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="2">
+        <v>6331</v>
+      </c>
+      <c r="H17" s="2">
+        <v>-601</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1476</v>
+      </c>
+      <c r="J17" s="2">
+        <v>-5283</v>
+      </c>
+      <c r="K17" s="2">
+        <f>17370+J17-I17+H17</f>
+        <v>10010</v>
+      </c>
+      <c r="L17" s="2">
+        <v>9483</v>
+      </c>
+      <c r="M17" s="2">
+        <v>-632</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="40" customFormat="1">
+      <c r="A18" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="40">
+        <f t="shared" ref="F18:L18" si="3">+F11+SUM(F12:F17)</f>
+        <v>-140193</v>
+      </c>
+      <c r="G18" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="40">
+        <f t="shared" si="3"/>
+        <v>-142732</v>
+      </c>
+      <c r="I18" s="40">
+        <f t="shared" si="3"/>
+        <v>-160703</v>
+      </c>
+      <c r="J18" s="40">
+        <f t="shared" si="3"/>
+        <v>-179488</v>
+      </c>
+      <c r="K18" s="40">
+        <f t="shared" si="3"/>
+        <v>-182096</v>
+      </c>
+      <c r="L18" s="40">
+        <f t="shared" si="3"/>
+        <v>-36160</v>
+      </c>
+      <c r="M18" s="40">
+        <f>+M11+SUM(M12:M17)</f>
+        <v>-75544</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="41" customFormat="1">
+      <c r="A19" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="41">
+        <f t="shared" ref="F19:L19" si="4">+F18/F20</f>
+        <v>-0.94764698725141616</v>
+      </c>
+      <c r="G19" s="41" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H19" s="41">
+        <f t="shared" si="4"/>
+        <v>-0.93505234333031984</v>
+      </c>
+      <c r="I19" s="41">
+        <f t="shared" si="4"/>
+        <v>-1.0010402651118753</v>
+      </c>
+      <c r="J19" s="41">
+        <f t="shared" si="4"/>
+        <v>-1.0317359039358038</v>
+      </c>
+      <c r="K19" s="41">
+        <f t="shared" si="4"/>
+        <v>-1.0356249146912961</v>
+      </c>
+      <c r="L19" s="41">
+        <f t="shared" si="4"/>
+        <v>-0.19230666957395776</v>
+      </c>
+      <c r="M19" s="41">
+        <f>+M18/M20</f>
+        <v>-0.40175926566081488</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="2">
+        <v>147938</v>
+      </c>
+      <c r="H20" s="2">
+        <v>152646</v>
+      </c>
+      <c r="I20" s="2">
+        <v>160536</v>
+      </c>
+      <c r="J20" s="2">
+        <v>173967</v>
+      </c>
+      <c r="K20" s="2">
+        <v>175832</v>
+      </c>
+      <c r="L20" s="2">
+        <v>188033</v>
+      </c>
+      <c r="M20" s="2">
+        <v>188033</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{E119891D-90AC-472F-A26A-150C198BA810}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F820475A-CF5D-4266-855F-7B02EF60DC8A}">
+  <sheetPr codeName="Tabelle1">
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:G83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.42578125" style="3"/>
+    <col min="4" max="4" width="21.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.42578125" style="43"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="46" customFormat="1">
+      <c r="A1" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="43">
+        <v>1</v>
+      </c>
+      <c r="F3" s="43">
+        <v>38197816</v>
+      </c>
+      <c r="G3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="G4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="E5" s="43">
+        <f>+E3+1</f>
+        <v>2</v>
+      </c>
+      <c r="F5" s="43">
+        <v>38598812</v>
+      </c>
+      <c r="G5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="G6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="E7" s="43">
+        <f>+E5+1</f>
+        <v>3</v>
+      </c>
+      <c r="F7" s="43">
+        <v>38598811</v>
+      </c>
+      <c r="G7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="G8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="E9" s="43">
+        <f>+E7+1</f>
+        <v>4</v>
+      </c>
+      <c r="F9" s="43">
+        <v>38598813</v>
+      </c>
+      <c r="G9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="G10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="E11" s="43">
+        <f>+E9+1</f>
+        <v>5</v>
+      </c>
+      <c r="F11" s="43">
+        <v>36380794</v>
+      </c>
+      <c r="G11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="G12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="E13" s="43">
+        <f>+E11+1</f>
+        <v>6</v>
+      </c>
+      <c r="F13" s="43">
+        <v>38652263</v>
+      </c>
+      <c r="G13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="G14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="E15" s="43">
+        <f>+E13+1</f>
+        <v>7</v>
+      </c>
+      <c r="F15" s="43">
+        <v>36371281</v>
+      </c>
+      <c r="G15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="G16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7">
+      <c r="E17" s="43">
+        <f>+E15+1</f>
+        <v>8</v>
+      </c>
+      <c r="F17" s="43">
+        <v>36555787</v>
+      </c>
+      <c r="G17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7">
+      <c r="G18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7">
+      <c r="E19" s="43">
+        <f>+E17+1</f>
+        <v>9</v>
+      </c>
+      <c r="F19" s="43">
+        <v>39006464</v>
+      </c>
+      <c r="G19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7">
+      <c r="G20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7">
+      <c r="E21" s="43">
+        <f>+E19+1</f>
+        <v>10</v>
+      </c>
+      <c r="F21" s="43">
+        <v>39086890</v>
+      </c>
+      <c r="G21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7">
+      <c r="G22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7">
+      <c r="E23" s="43">
+        <f>+E21+1</f>
+        <v>11</v>
+      </c>
+      <c r="F23" s="43">
+        <v>38830793</v>
+      </c>
+      <c r="G23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7">
+      <c r="G24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7">
+      <c r="D26" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="E26" s="43">
+        <v>12</v>
+      </c>
+      <c r="F26" s="43">
+        <v>34662045</v>
+      </c>
+      <c r="G26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7">
+      <c r="G27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="4:7">
+      <c r="E28" s="43">
+        <f>+E26+1</f>
+        <v>13</v>
+      </c>
+      <c r="F28" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="G28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="4:7">
+      <c r="G29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="4:7">
+      <c r="E30" s="43">
+        <f>+E28+1</f>
+        <v>14</v>
+      </c>
+      <c r="F30" s="43">
+        <v>37979789</v>
+      </c>
+      <c r="G30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="4:7">
+      <c r="G31" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="4:7">
+      <c r="E32" s="43">
+        <f>+E30+1</f>
+        <v>15</v>
+      </c>
+      <c r="F32" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="G32" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="5:7">
+      <c r="G33" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="5:7">
+      <c r="E34" s="43">
+        <f>+E32+1</f>
+        <v>16</v>
+      </c>
+      <c r="F34" s="43">
+        <v>37943223</v>
+      </c>
+      <c r="G34" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="5:7">
+      <c r="G35" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="5:7">
+      <c r="E36" s="43">
+        <f>+E34+1</f>
+        <v>17</v>
+      </c>
+      <c r="F36" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="G36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="5:7">
+      <c r="G37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="5:7">
+      <c r="E38" s="43">
+        <f>+E36+1</f>
+        <v>18</v>
+      </c>
+      <c r="F38" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="G38" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="5:7">
+      <c r="G39" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="5:7">
+      <c r="E40" s="43">
+        <f>+E38+1</f>
+        <v>19</v>
+      </c>
+      <c r="F40" s="43">
+        <v>38184468</v>
+      </c>
+      <c r="G40" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="5:7">
+      <c r="G41" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="5:7">
+      <c r="E42" s="43">
+        <f>+E40+1</f>
+        <v>20</v>
+      </c>
+      <c r="F42" s="43">
+        <v>38652263</v>
+      </c>
+      <c r="G42" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="5:7">
+      <c r="G43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="5:7">
+      <c r="E44" s="43">
+        <f>+E42+1</f>
+        <v>21</v>
+      </c>
+      <c r="F44" s="43">
+        <v>37599395</v>
+      </c>
+      <c r="G44" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="5:7">
+      <c r="G45" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="5:7">
+      <c r="E46" s="43">
+        <f>+E44+1</f>
+        <v>22</v>
+      </c>
+      <c r="F46" s="43">
+        <v>38099914</v>
+      </c>
+      <c r="G46" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="5:7">
+      <c r="G47" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="5:7">
+      <c r="E48" s="43">
+        <f>+E46+1</f>
+        <v>23</v>
+      </c>
+      <c r="F48" s="43">
+        <v>37640179</v>
+      </c>
+      <c r="G48" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="5:7">
+      <c r="G49" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="5:7">
+      <c r="E50" s="43">
+        <f>+E48+1</f>
+        <v>24</v>
+      </c>
+      <c r="F50" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="G50" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="5:7">
+      <c r="G51" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" spans="5:7">
+      <c r="E52" s="43">
+        <f>+E50+1</f>
+        <v>25</v>
+      </c>
+      <c r="F52" s="43">
+        <v>38446436</v>
+      </c>
+      <c r="G52" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="5:7">
+      <c r="G53" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="5:7">
+      <c r="E54" s="43">
+        <f>+E52+1</f>
+        <v>26</v>
+      </c>
+      <c r="F54" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="G54" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" spans="5:7">
+      <c r="G55" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56" spans="5:7">
+      <c r="E56" s="43">
+        <f>+E54+1</f>
+        <v>27</v>
+      </c>
+      <c r="F56" s="43">
+        <v>38844305</v>
+      </c>
+      <c r="G56" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="57" spans="5:7">
+      <c r="G57" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="58" spans="5:7">
+      <c r="E58" s="43">
+        <f>+E56+1</f>
+        <v>28</v>
+      </c>
+      <c r="F58" s="43">
+        <v>38130034</v>
+      </c>
+      <c r="G58" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="5:7">
+      <c r="G59" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" spans="5:7">
+      <c r="E60" s="43">
+        <f>+E58+1</f>
+        <v>29</v>
+      </c>
+      <c r="F60" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="G60" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="61" spans="5:7">
+      <c r="G61" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="62" spans="5:7">
+      <c r="E62" s="43">
+        <f>+E60+1</f>
+        <v>30</v>
+      </c>
+      <c r="F62" s="43">
+        <v>38141813</v>
+      </c>
+      <c r="G62" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="63" spans="5:7">
+      <c r="G63" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="64" spans="5:7">
+      <c r="E64" s="43">
+        <f>+E62+1</f>
+        <v>31</v>
+      </c>
+      <c r="F64" s="43">
+        <v>37953725</v>
+      </c>
+      <c r="G64" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7">
+      <c r="G65" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7">
+      <c r="D67" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="E67" s="43">
+        <v>32</v>
+      </c>
+      <c r="F67" s="43">
+        <v>30885685</v>
+      </c>
+      <c r="G67" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7">
+      <c r="G68" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7">
+      <c r="E69" s="43">
+        <f>+E67+1</f>
+        <v>33</v>
+      </c>
+      <c r="F69" s="43">
+        <v>31319911</v>
+      </c>
+      <c r="G69" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7">
+      <c r="G70" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7">
+      <c r="E71" s="43">
+        <f>+E69+1</f>
+        <v>34</v>
+      </c>
+      <c r="F71" s="43">
+        <v>33685242</v>
+      </c>
+      <c r="G71" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7">
+      <c r="G72" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7">
+      <c r="E73" s="43">
+        <f>+E71+1</f>
+        <v>35</v>
+      </c>
+      <c r="F73" s="43">
+        <v>37059345</v>
+      </c>
+      <c r="G73" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7">
+      <c r="G74" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7">
+      <c r="E75" s="43">
+        <f>+E73+1</f>
+        <v>36</v>
+      </c>
+      <c r="F75" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="G75" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7">
+      <c r="G76" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7">
+      <c r="E77" s="43">
+        <f>+E75+1</f>
+        <v>37</v>
+      </c>
+      <c r="F77" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="G77" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7">
+      <c r="G78" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" ht="15.75">
+      <c r="B80" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="C80" s="3">
+        <v>10</v>
+      </c>
+      <c r="D80" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="E80" s="43">
+        <v>38</v>
+      </c>
+      <c r="F80" s="43">
+        <v>37754292</v>
+      </c>
+      <c r="G80" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="81" spans="5:7">
+      <c r="G81" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="82" spans="5:7">
+      <c r="E82" s="43">
+        <f>+E80+1</f>
+        <v>39</v>
+      </c>
+      <c r="F82" s="43">
+        <v>38572533</v>
+      </c>
+      <c r="G82" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="83" spans="5:7">
+      <c r="G83" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{DA37ACA4-9363-4E03-9948-06C1D68072EF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C762028-8627-417F-BB73-33FDBEC31698}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2698B348-9A51-468A-BAA5-9E3D59FE6CFE}">
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1258,39 +3324,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75">
-      <c r="D14" s="33" t="s">
-        <v>30</v>
+    <row r="8" spans="1:4" ht="15.75">
+      <c r="D8" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{4CEF1EA8-B1E5-4BFC-87C1-1534A516F037}"/>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{827B690F-2D45-4C77-9193-F9A9A816C890}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{507450D5-9110-4689-93EF-B3970FF1FFB0}">
-  <dimension ref="A1:D10"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B737151-6FA6-4B9E-8094-0BF325DC2B34}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="C8" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{AA3EC51B-EDCC-48CD-94A3-F53BFC8775AD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C9E2CB5-3E7C-4766-93EF-0E73D6463912}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1298,187 +3388,42 @@
     <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="C4" t="s">
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75">
-      <c r="C10" s="33" t="s">
-        <v>26</v>
+    <row r="6" spans="1:3">
+      <c r="C6" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{BF312400-E116-433D-A989-A5E9FB96E3F6}"/>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{901F85A2-2E1F-4A92-AC74-0F68AE02C3E1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{738DC9AD-62C9-4B7E-81E9-C24C4F2EAF7F}">
-  <dimension ref="A9:A10"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D1A829-D6D9-4A4F-9C99-408AA38E3A2C}">
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F820475A-CF5D-4266-855F-7B02EF60DC8A}">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2698B348-9A51-468A-BAA5-9E3D59FE6CFE}">
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75">
-      <c r="D8" s="33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B737151-6FA6-4B9E-8094-0BF325DC2B34}">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="C8" s="35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C9E2CB5-3E7C-4766-93EF-0E73D6463912}">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="C6" s="35" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D1A829-D6D9-4A4F-9C99-408AA38E3A2C}">
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1488,81 +3433,53 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="C10" s="35" t="s">
-        <v>42</v>
+      <c r="C10" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52ACEFEA-5EB8-4D39-8A31-FAFE2125A4A4}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75">
-      <c r="C5" s="33" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{D943C51F-8301-4838-B589-32C9BE8117D5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7DE03C8-A72B-4882-8EC4-9E833FDDB987}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52ACEFEA-5EB8-4D39-8A31-FAFE2125A4A4}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+    <row r="1" spans="1:3">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="B4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="D6" s="35" t="s">
-        <v>37</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75">
+      <c r="C5" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{27967676-CAA5-4079-AFD3-1C35DD52E062}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>